--- a/Blackjack/Data.xlsx
+++ b/Blackjack/Data.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,14 +464,14 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="3">
-        <v>1039.5</v>
+        <v>1029.5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4">
         <f>MEDIAN(B4:B13)</f>
-        <v>1039.75</v>
+        <v>1038.5</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="3">
@@ -521,7 +521,7 @@
       </c>
       <c r="D6">
         <f>ABS(MAX(B4:B13)-MIN(B4:B13))</f>
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="3">
@@ -546,7 +546,7 @@
       </c>
       <c r="D7">
         <f>QUARTILE(B4:B13,1)</f>
-        <v>1035.5</v>
+        <v>1034.625</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="3">
@@ -571,7 +571,7 @@
       </c>
       <c r="D8">
         <f>QUARTILE(B4:B13,2)</f>
-        <v>1039.75</v>
+        <v>1038.5</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="3">
@@ -621,7 +621,7 @@
       </c>
       <c r="D10">
         <f>VARP(B4:B13)</f>
-        <v>23.352499999999999</v>
+        <v>32.652500000000003</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="3">
@@ -646,7 +646,7 @@
       </c>
       <c r="D11">
         <f>SQRT(D10)</f>
-        <v>4.8324424466308962</v>
+        <v>5.7142366069318484</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3">
@@ -690,7 +690,7 @@
       </c>
       <c r="D14">
         <f>AVERAGE(B4:B13)</f>
-        <v>1039.6500000000001</v>
+        <v>1038.6500000000001</v>
       </c>
       <c r="E14" s="1"/>
       <c r="G14" s="2" t="s">
@@ -771,7 +771,7 @@
       </c>
       <c r="H19">
         <f>MEDIAN(F19:F28)</f>
-        <v>1029.5</v>
+        <v>1031.5</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="H22">
         <f>QUARTILE(F19:F28,1)</f>
-        <v>1021.75</v>
+        <v>1026.5</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -863,13 +863,15 @@
         <v>1029.25</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3">
+        <v>1031.5</v>
+      </c>
       <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H23">
         <f>QUARTILE(F19:F28,2)</f>
-        <v>1029.5</v>
+        <v>1031.5</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -886,13 +888,15 @@
         <v>1041.125</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3">
+        <v>1029.5</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H24">
         <f>QUARTILE(F19:F28,3)</f>
-        <v>1035.875</v>
+        <v>1034.25</v>
       </c>
       <c r="I24" s="1"/>
     </row>
@@ -909,13 +913,15 @@
         <v>125.12249999999999</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3">
+        <v>1033</v>
+      </c>
       <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H25">
         <f>VARP(F19:F28)</f>
-        <v>72.421875</v>
+        <v>44.785714285714285</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -938,7 +944,7 @@
       </c>
       <c r="H26">
         <f>SQRT(H25)</f>
-        <v>8.5101042884326628</v>
+        <v>6.6922129587838342</v>
       </c>
       <c r="I26" s="1"/>
     </row>
@@ -975,7 +981,7 @@
       </c>
       <c r="H29">
         <f>AVERAGE(F19:F28)</f>
-        <v>1028.125</v>
+        <v>1029.5</v>
       </c>
       <c r="I29" s="1"/>
     </row>

--- a/Blackjack/Data.xlsx
+++ b/Blackjack/Data.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,14 +464,14 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="3">
-        <v>1029.5</v>
+        <v>1017</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4">
         <f>MEDIAN(B4:B13)</f>
-        <v>1038.5</v>
+        <v>1017</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="3">
@@ -488,15 +488,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="3">
-        <v>1045</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="e">
         <f>MODE(B4:B13)</f>
-        <v>1042</v>
+        <v>#N/A</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="3">
@@ -513,15 +511,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="3">
-        <v>1032.5</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6">
         <f>ABS(MAX(B4:B13)-MIN(B4:B13))</f>
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="3">
@@ -538,15 +534,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="3">
-        <v>1040</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7">
         <f>QUARTILE(B4:B13,1)</f>
-        <v>1034.625</v>
+        <v>1017</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="3">
@@ -563,15 +557,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="3">
-        <v>1042</v>
-      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8">
         <f>QUARTILE(B4:B13,2)</f>
-        <v>1038.5</v>
+        <v>1017</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="3">
@@ -588,15 +580,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="3">
-        <v>1034.5</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9">
         <f>QUARTILE(B4:B13,3)</f>
-        <v>1042</v>
+        <v>1017</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="3">
@@ -613,15 +603,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="3">
-        <v>1035</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10">
         <f>VARP(B4:B13)</f>
-        <v>32.652500000000003</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="3">
@@ -638,15 +626,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="3">
-        <v>1042</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11">
         <f>SQRT(D10)</f>
-        <v>5.7142366069318484</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3">
@@ -663,9 +649,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="3">
-        <v>1037</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3">
         <v>1027.5</v>
@@ -674,9 +658,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="3">
-        <v>1049</v>
-      </c>
+      <c r="B13" s="3"/>
       <c r="E13" s="1"/>
       <c r="F13" s="3">
         <v>1016</v>
@@ -690,7 +672,7 @@
       </c>
       <c r="D14">
         <f>AVERAGE(B4:B13)</f>
-        <v>1038.6500000000001</v>
+        <v>1017</v>
       </c>
       <c r="E14" s="1"/>
       <c r="G14" s="2" t="s">
@@ -771,7 +753,7 @@
       </c>
       <c r="H19">
         <f>MEDIAN(F19:F28)</f>
-        <v>1031.5</v>
+        <v>1032.25</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -821,7 +803,7 @@
       </c>
       <c r="H21">
         <f>ABS(MAX(F19:F28)-MIN(F19:F28))</f>
-        <v>20.5</v>
+        <v>30.5</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -846,7 +828,7 @@
       </c>
       <c r="H22">
         <f>QUARTILE(F19:F28,1)</f>
-        <v>1026.5</v>
+        <v>1025</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -871,7 +853,7 @@
       </c>
       <c r="H23">
         <f>QUARTILE(F19:F28,2)</f>
-        <v>1031.5</v>
+        <v>1032.25</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -896,7 +878,7 @@
       </c>
       <c r="H24">
         <f>QUARTILE(F19:F28,3)</f>
-        <v>1034.25</v>
+        <v>1036.625</v>
       </c>
       <c r="I24" s="1"/>
     </row>
@@ -921,7 +903,7 @@
       </c>
       <c r="H25">
         <f>VARP(F19:F28)</f>
-        <v>44.785714285714285</v>
+        <v>85.852500000000006</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -938,13 +920,15 @@
         <v>11.185816912501295</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3">
+        <v>1013</v>
+      </c>
       <c r="G26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H26">
         <f>SQRT(H25)</f>
-        <v>6.6922129587838342</v>
+        <v>9.2656624156074248</v>
       </c>
       <c r="I26" s="1"/>
     </row>
@@ -954,7 +938,9 @@
         <v>1020.5</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3">
+        <v>1043.5</v>
+      </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -963,7 +949,9 @@
         <v>1020</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3">
+        <v>1038.5</v>
+      </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -981,7 +969,7 @@
       </c>
       <c r="H29">
         <f>AVERAGE(F19:F28)</f>
-        <v>1029.5</v>
+        <v>1030.1500000000001</v>
       </c>
       <c r="I29" s="1"/>
     </row>

--- a/Blackjack/Data.xlsx
+++ b/Blackjack/Data.xlsx
@@ -407,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="D4">
         <f>MEDIAN(B4:B13)</f>
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="3">
@@ -488,13 +488,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>1020.5</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="e">
+      <c r="D5">
         <f>MODE(B4:B13)</f>
-        <v>#N/A</v>
+        <v>1031.5</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="3">
@@ -511,13 +513,15 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>1031.5</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6">
         <f>ABS(MAX(B4:B13)-MIN(B4:B13))</f>
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="3">
@@ -534,13 +538,15 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <v>1008</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7">
         <f>QUARTILE(B4:B13,1)</f>
-        <v>1017</v>
+        <v>1012.125</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="3">
@@ -557,13 +563,15 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>1031.5</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8">
         <f>QUARTILE(B4:B13,2)</f>
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="3">
@@ -580,13 +588,15 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>1031.5</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9">
         <f>QUARTILE(B4:B13,3)</f>
-        <v>1017</v>
+        <v>1031.5</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="3">
@@ -603,13 +613,15 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <v>1025.5</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10">
         <f>VARP(B4:B13)</f>
-        <v>0</v>
+        <v>106.1525</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="3">
@@ -626,13 +638,15 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <v>1033</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11">
         <f>SQRT(D10)</f>
-        <v>0</v>
+        <v>10.303033533867586</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3">
@@ -649,7 +663,9 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3">
+        <v>1004.5</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="3">
         <v>1027.5</v>
@@ -658,7 +674,9 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3">
+        <v>1010.5</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="3">
         <v>1016</v>
@@ -672,7 +690,7 @@
       </c>
       <c r="D14">
         <f>AVERAGE(B4:B13)</f>
-        <v>1017</v>
+        <v>1021.35</v>
       </c>
       <c r="E14" s="1"/>
       <c r="G14" s="2" t="s">
